--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N2">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O2">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P2">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q2">
-        <v>100211.3935673057</v>
+        <v>118366.7664224542</v>
       </c>
       <c r="R2">
-        <v>100211.3935673057</v>
+        <v>1065300.897802088</v>
       </c>
       <c r="S2">
-        <v>0.1980631182519652</v>
+        <v>0.206249301220062</v>
       </c>
       <c r="T2">
-        <v>0.1980631182519652</v>
+        <v>0.2244931852726172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N3">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O3">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P3">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q3">
-        <v>9610.175232341569</v>
+        <v>11512.95171088199</v>
       </c>
       <c r="R3">
-        <v>9610.175232341569</v>
+        <v>103616.5653979379</v>
       </c>
       <c r="S3">
-        <v>0.01899406051256005</v>
+        <v>0.02006085252743102</v>
       </c>
       <c r="T3">
-        <v>0.01899406051256005</v>
+        <v>0.02183534516978602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N4">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O4">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P4">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q4">
-        <v>201.284329445897</v>
+        <v>225.741539125315</v>
       </c>
       <c r="R4">
-        <v>201.284329445897</v>
+        <v>2031.673852127835</v>
       </c>
       <c r="S4">
-        <v>0.0003978290344653682</v>
+        <v>0.0003933454981338855</v>
       </c>
       <c r="T4">
-        <v>0.0003978290344653682</v>
+        <v>0.0004281390689149685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N5">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O5">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P5">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q5">
-        <v>147.6788160782321</v>
+        <v>172.0662665328711</v>
       </c>
       <c r="R5">
-        <v>147.6788160782321</v>
+        <v>1548.59639879584</v>
       </c>
       <c r="S5">
-        <v>0.0002918802520450721</v>
+        <v>0.0002998185074118696</v>
       </c>
       <c r="T5">
-        <v>0.0002918802520450721</v>
+        <v>0.0003263391019238292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H6">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I6">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J6">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N6">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O6">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P6">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q6">
-        <v>22183.73919963936</v>
+        <v>24718.29456355618</v>
       </c>
       <c r="R6">
-        <v>22183.73919963936</v>
+        <v>148309.7673813371</v>
       </c>
       <c r="S6">
-        <v>0.04384511984076841</v>
+        <v>0.04307062814312045</v>
       </c>
       <c r="T6">
-        <v>0.04384511984076841</v>
+        <v>0.03125364125306758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N7">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O7">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P7">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q7">
-        <v>54945.57028193636</v>
+        <v>64165.19451947563</v>
       </c>
       <c r="R7">
-        <v>54945.57028193636</v>
+        <v>577486.7506752807</v>
       </c>
       <c r="S7">
-        <v>0.1085973420463773</v>
+        <v>0.111805255244184</v>
       </c>
       <c r="T7">
-        <v>0.1085973420463773</v>
+        <v>0.1216950444511053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N8">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O8">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P8">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q8">
-        <v>5269.226780043715</v>
+        <v>6241.032076398221</v>
       </c>
       <c r="R8">
-        <v>5269.226780043715</v>
+        <v>56169.28868758399</v>
       </c>
       <c r="S8">
-        <v>0.01041437953990005</v>
+        <v>0.01087474587296779</v>
       </c>
       <c r="T8">
-        <v>0.01041437953990005</v>
+        <v>0.01183667690320067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N9">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O9">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P9">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q9">
-        <v>110.3635213175024</v>
+        <v>122.371761997833</v>
       </c>
       <c r="R9">
-        <v>110.3635213175024</v>
+        <v>1101.345857980497</v>
       </c>
       <c r="S9">
-        <v>0.000218128322491898</v>
+        <v>0.0002132278439629059</v>
       </c>
       <c r="T9">
-        <v>0.000218128322491898</v>
+        <v>0.0002320890184688256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J10">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N10">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O10">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P10">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q10">
-        <v>80.97179850642222</v>
+        <v>93.27504498109867</v>
       </c>
       <c r="R10">
-        <v>80.97179850642222</v>
+        <v>839.475404829888</v>
       </c>
       <c r="S10">
-        <v>0.0001600369611852609</v>
+        <v>0.0001625279918517063</v>
       </c>
       <c r="T10">
-        <v>0.0001600369611852609</v>
+        <v>0.0001769044858378529</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J11">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N11">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O11">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P11">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q11">
-        <v>12163.2696434989</v>
+        <v>13399.48895114367</v>
       </c>
       <c r="R11">
-        <v>12163.2696434989</v>
+        <v>80396.93370686205</v>
       </c>
       <c r="S11">
-        <v>0.02404013184501645</v>
+        <v>0.02334806733687255</v>
       </c>
       <c r="T11">
-        <v>0.02404013184501645</v>
+        <v>0.01694222146178832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H12">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I12">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J12">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N12">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O12">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P12">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q12">
-        <v>82788.14066223937</v>
+        <v>96303.19265159994</v>
       </c>
       <c r="R12">
-        <v>82788.14066223937</v>
+        <v>866728.7338643994</v>
       </c>
       <c r="S12">
-        <v>0.1636268762476836</v>
+        <v>0.1678044166448192</v>
       </c>
       <c r="T12">
-        <v>0.1636268762476836</v>
+        <v>0.1826476393983756</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H13">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I13">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J13">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N13">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O13">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P13">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q13">
-        <v>7939.302215067016</v>
+        <v>9366.936684276172</v>
       </c>
       <c r="R13">
-        <v>7939.302215067016</v>
+        <v>84302.43015848554</v>
       </c>
       <c r="S13">
-        <v>0.01569165837819399</v>
+        <v>0.01632150817408862</v>
       </c>
       <c r="T13">
-        <v>0.01569165837819399</v>
+        <v>0.01776523526033555</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H14">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I14">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J14">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N14">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O14">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P14">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q14">
-        <v>166.2880315907324</v>
+        <v>183.663300003183</v>
       </c>
       <c r="R14">
-        <v>166.2880315907324</v>
+        <v>1652.969700028647</v>
       </c>
       <c r="S14">
-        <v>0.000328660493506869</v>
+        <v>0.0003200258690030514</v>
       </c>
       <c r="T14">
-        <v>0.000328660493506869</v>
+        <v>0.0003483339156891361</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H15">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I15">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J15">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N15">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O15">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P15">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q15">
-        <v>122.0026402497454</v>
+        <v>139.993102080832</v>
       </c>
       <c r="R15">
-        <v>122.0026402497454</v>
+        <v>1259.937918727488</v>
       </c>
       <c r="S15">
-        <v>0.0002411324950451638</v>
+        <v>0.0002439323160755291</v>
       </c>
       <c r="T15">
-        <v>0.0002411324950451638</v>
+        <v>0.0002655094698638217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H16">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I16">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J16">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N16">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O16">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P16">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q16">
-        <v>18326.76361336778</v>
+        <v>20110.80267984387</v>
       </c>
       <c r="R16">
-        <v>18326.76361336778</v>
+        <v>120664.8160790633</v>
       </c>
       <c r="S16">
-        <v>0.03622198853359254</v>
+        <v>0.03504225996077819</v>
       </c>
       <c r="T16">
-        <v>0.03622198853359254</v>
+        <v>0.0254279602765865</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H17">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I17">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J17">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N17">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O17">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P17">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q17">
-        <v>109666.9379427354</v>
+        <v>120408.3046991801</v>
       </c>
       <c r="R17">
-        <v>109666.9379427354</v>
+        <v>1083674.742292621</v>
       </c>
       <c r="S17">
-        <v>0.2167515581299078</v>
+        <v>0.2098065990640018</v>
       </c>
       <c r="T17">
-        <v>0.2167515581299078</v>
+        <v>0.2283651456585453</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H18">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I18">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J18">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N18">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O18">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P18">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q18">
-        <v>10516.95274665714</v>
+        <v>11711.52207236314</v>
       </c>
       <c r="R18">
-        <v>10516.95274665714</v>
+        <v>105403.6986512683</v>
       </c>
       <c r="S18">
-        <v>0.02078626373070493</v>
+        <v>0.02040685334790062</v>
       </c>
       <c r="T18">
-        <v>0.02078626373070493</v>
+        <v>0.02221195166413377</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H19">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I19">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J19">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N19">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O19">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P19">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q19">
-        <v>220.2767098669516</v>
+        <v>229.63503057313</v>
       </c>
       <c r="R19">
-        <v>220.2767098669516</v>
+        <v>2066.71527515817</v>
       </c>
       <c r="S19">
-        <v>0.0004353665833938255</v>
+        <v>0.0004001297494460493</v>
       </c>
       <c r="T19">
-        <v>0.0004353665833938255</v>
+        <v>0.0004355234245358032</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H20">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I20">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J20">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N20">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O20">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P20">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q20">
-        <v>161.613195683489</v>
+        <v>175.0339903279645</v>
       </c>
       <c r="R20">
-        <v>161.613195683489</v>
+        <v>1575.30591295168</v>
       </c>
       <c r="S20">
-        <v>0.0003194208996428938</v>
+        <v>0.0003049896460469116</v>
       </c>
       <c r="T20">
-        <v>0.0003194208996428938</v>
+        <v>0.0003319676561870422</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H21">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I21">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J21">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N21">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O21">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P21">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q21">
-        <v>24276.90768026993</v>
+        <v>25144.62490958236</v>
       </c>
       <c r="R21">
-        <v>24276.90768026993</v>
+        <v>150867.7494574942</v>
       </c>
       <c r="S21">
-        <v>0.04798216914766155</v>
+        <v>0.04381349152119889</v>
       </c>
       <c r="T21">
-        <v>0.04798216914766155</v>
+        <v>0.03179269040371745</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H22">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I22">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J22">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>726.742657863424</v>
+        <v>780.134654</v>
       </c>
       <c r="N22">
-        <v>726.742657863424</v>
+        <v>2340.403962</v>
       </c>
       <c r="O22">
-        <v>0.7571451431111198</v>
+        <v>0.7636771497364756</v>
       </c>
       <c r="P22">
-        <v>0.7571451431111198</v>
+        <v>0.8065527316666545</v>
       </c>
       <c r="Q22">
-        <v>35470.73738649478</v>
+        <v>39031.94080100737</v>
       </c>
       <c r="R22">
-        <v>35470.73738649478</v>
+        <v>234191.6448060443</v>
       </c>
       <c r="S22">
-        <v>0.07010624843518586</v>
+        <v>0.06801157756340849</v>
       </c>
       <c r="T22">
-        <v>0.07010624843518586</v>
+        <v>0.04935171688601125</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H23">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I23">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J23">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.6939144568862</v>
+        <v>75.879851</v>
       </c>
       <c r="N23">
-        <v>69.6939144568862</v>
+        <v>227.639553</v>
       </c>
       <c r="O23">
-        <v>0.07260948323932014</v>
+        <v>0.0742791107111984</v>
       </c>
       <c r="P23">
-        <v>0.07260948323932014</v>
+        <v>0.07844940714876734</v>
       </c>
       <c r="Q23">
-        <v>3401.609235936196</v>
+        <v>3796.444417685438</v>
       </c>
       <c r="R23">
-        <v>3401.609235936196</v>
+        <v>22778.66650611263</v>
       </c>
       <c r="S23">
-        <v>0.006723121077961097</v>
+        <v>0.006615150788810338</v>
       </c>
       <c r="T23">
-        <v>0.006723121077961097</v>
+        <v>0.004800198151311347</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H24">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I24">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J24">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.45973330337453</v>
+        <v>1.487823</v>
       </c>
       <c r="N24">
-        <v>1.45973330337453</v>
+        <v>4.463469</v>
       </c>
       <c r="O24">
-        <v>0.001520799651608287</v>
+        <v>0.001456436298691036</v>
       </c>
       <c r="P24">
-        <v>0.001520799651608287</v>
+        <v>0.001538205870914276</v>
       </c>
       <c r="Q24">
-        <v>71.2464255373998</v>
+        <v>74.4392252806875</v>
       </c>
       <c r="R24">
-        <v>71.2464255373998</v>
+        <v>446.635351684125</v>
       </c>
       <c r="S24">
-        <v>0.0001408152177503268</v>
+        <v>0.0001297073381451442</v>
       </c>
       <c r="T24">
-        <v>0.0001408152177503268</v>
+        <v>9.412044330554237E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H25">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I25">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J25">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.07098096819435</v>
+        <v>1.134058666666667</v>
       </c>
       <c r="N25">
-        <v>1.07098096819435</v>
+        <v>3.402176</v>
       </c>
       <c r="O25">
-        <v>0.001115784287132332</v>
+        <v>0.001110134879604961</v>
       </c>
       <c r="P25">
-        <v>0.001115784287132332</v>
+        <v>0.001172461844606437</v>
       </c>
       <c r="Q25">
-        <v>52.27226482127714</v>
+        <v>56.73957760400001</v>
       </c>
       <c r="R25">
-        <v>52.27226482127714</v>
+        <v>340.437465624</v>
       </c>
       <c r="S25">
-        <v>0.0001033136792139415</v>
+        <v>9.886641821894458E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001033136792139415</v>
+        <v>7.17411307938908E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H26">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I26">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J26">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>160.878608842685</v>
+        <v>162.913956</v>
       </c>
       <c r="N26">
-        <v>160.878608842685</v>
+        <v>325.827912</v>
       </c>
       <c r="O26">
-        <v>0.1676087897108194</v>
+        <v>0.1594771683740299</v>
       </c>
       <c r="P26">
-        <v>0.1676087897108194</v>
+        <v>0.1122871934690573</v>
       </c>
       <c r="Q26">
-        <v>7852.136961576171</v>
+        <v>8150.96195720325</v>
       </c>
       <c r="R26">
-        <v>7852.136961576171</v>
+        <v>32603.847828813</v>
       </c>
       <c r="S26">
-        <v>0.01551938034378042</v>
+        <v>0.01420272141205987</v>
       </c>
       <c r="T26">
-        <v>0.01551938034378042</v>
+        <v>0.00687068007389751</v>
       </c>
     </row>
   </sheetData>
